--- a/Exporter/custom.xlsx
+++ b/Exporter/custom.xlsx
@@ -367,7 +367,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Exporter/custom.xlsx
+++ b/Exporter/custom.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>name</t>
   </si>
@@ -34,11 +34,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自定义位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{float x:float y: float z}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PositionArray3d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{float[] a:float[] y: float[] z}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -364,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -393,10 +405,21 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Exporter/custom.xlsx
+++ b/Exporter/custom.xlsx
@@ -50,7 +50,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{float[] a:float[] y: float[] z}</t>
+    <t>{float[] x:float[] y: float[] z}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,7 +379,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Exporter/custom.xlsx
+++ b/Exporter/custom.xlsx
@@ -379,7 +379,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Exporter/custom.xlsx
+++ b/Exporter/custom.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>name</t>
   </si>
@@ -30,27 +30,39 @@
     <t>description</t>
   </si>
   <si>
+    <t>PositionArray3d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{float x;float y;float z}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{float[] x;float[] y;float[] z}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{int x;int y;int z}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position3dInt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Position3d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{float x:float y: float z}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PositionArray3d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{float[] x:float[] y: float[] z}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -402,24 +414,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
+      <c r="C4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Exporter/custom.xlsx
+++ b/Exporter/custom.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>name</t>
   </si>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t>Position3d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommonType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{int type;int id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -445,6 +457,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
